--- a/benchmarking/data/TEB/office/benchmarking_other_office.xlsx
+++ b/benchmarking/data/TEB/office/benchmarking_other_office.xlsx
@@ -494,16 +494,16 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>81.8</v>
+        <v>82.8</v>
       </c>
       <c r="C2" t="n">
-        <v>0.07022295732691773</v>
+        <v>0.05067867275428872</v>
       </c>
       <c r="D2" t="n">
-        <v>44.6813850402832</v>
+        <v>44.90488052368164</v>
       </c>
       <c r="E2" t="n">
-        <v>4.991300582885742</v>
+        <v>5.4542236328125</v>
       </c>
     </row>
   </sheetData>
@@ -552,16 +552,16 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>81.398</v>
+        <v>81.804</v>
       </c>
       <c r="C2" t="n">
-        <v>0.08849489208975457</v>
+        <v>0.04030711910202076</v>
       </c>
       <c r="D2" t="n">
-        <v>44.80557632446289</v>
+        <v>44.96537017822266</v>
       </c>
       <c r="E2" t="n">
-        <v>5.324003219604492</v>
+        <v>5.358763217926025</v>
       </c>
     </row>
   </sheetData>
@@ -610,16 +610,16 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>78.60199999999999</v>
+        <v>82.01400000000001</v>
       </c>
       <c r="C2" t="n">
-        <v>0.09756721234674354</v>
+        <v>0.06291798972780355</v>
       </c>
       <c r="D2" t="n">
-        <v>44.60619354248047</v>
+        <v>44.63130187988281</v>
       </c>
       <c r="E2" t="n">
-        <v>4.790913105010986</v>
+        <v>5.042005062103271</v>
       </c>
     </row>
   </sheetData>
@@ -668,16 +668,16 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>78.006</v>
+        <v>79.60599999999999</v>
       </c>
       <c r="C2" t="n">
-        <v>0.111587388121779</v>
+        <v>0.0568828030783137</v>
       </c>
       <c r="D2" t="n">
-        <v>44.58262252807617</v>
+        <v>44.6306037902832</v>
       </c>
       <c r="E2" t="n">
-        <v>5.127785205841064</v>
+        <v>5.419844150543213</v>
       </c>
     </row>
   </sheetData>
@@ -726,16 +726,16 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>79.408</v>
+        <v>79.80799999999999</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0778928902535261</v>
+        <v>0.05948943631419151</v>
       </c>
       <c r="D2" t="n">
-        <v>44.85335159301758</v>
+        <v>44.60120391845703</v>
       </c>
       <c r="E2" t="n">
-        <v>4.931873321533203</v>
+        <v>5.561877250671387</v>
       </c>
     </row>
   </sheetData>
@@ -784,16 +784,16 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>79.798</v>
+        <v>81.61199999999999</v>
       </c>
       <c r="C2" t="n">
-        <v>0.09403271284177457</v>
+        <v>0.04879134734156459</v>
       </c>
       <c r="D2" t="n">
-        <v>44.72599792480469</v>
+        <v>44.57273101806641</v>
       </c>
       <c r="E2" t="n">
-        <v>4.695135116577148</v>
+        <v>5.234819412231445</v>
       </c>
     </row>
   </sheetData>
@@ -842,16 +842,16 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>81.196</v>
+        <v>80.20399999999999</v>
       </c>
       <c r="C2" t="n">
-        <v>0.04816837023858465</v>
+        <v>0.04823248099332454</v>
       </c>
       <c r="D2" t="n">
-        <v>44.81262969970703</v>
+        <v>44.73026657104492</v>
       </c>
       <c r="E2" t="n">
-        <v>4.832236289978027</v>
+        <v>5.376288414001465</v>
       </c>
     </row>
   </sheetData>
@@ -900,16 +900,16 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>79.19999999999999</v>
+        <v>81.608</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1120869409329563</v>
+        <v>0.05838616610630574</v>
       </c>
       <c r="D2" t="n">
-        <v>44.56978225708008</v>
+        <v>44.64594650268555</v>
       </c>
       <c r="E2" t="n">
-        <v>4.997051239013672</v>
+        <v>5.379059791564941</v>
       </c>
     </row>
   </sheetData>
@@ -958,16 +958,16 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>116.798</v>
+        <v>79.81399999999999</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1212878012213114</v>
+        <v>0.05778077729260511</v>
       </c>
       <c r="D2" t="n">
-        <v>57.28347015380859</v>
+        <v>44.68883895874023</v>
       </c>
       <c r="E2" t="n">
-        <v>7.436028003692627</v>
+        <v>5.419342517852783</v>
       </c>
     </row>
   </sheetData>
@@ -1016,16 +1016,16 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>78.602</v>
+        <v>80.202</v>
       </c>
       <c r="C2" t="n">
-        <v>0.05716190837017535</v>
+        <v>0.04540638256369219</v>
       </c>
       <c r="D2" t="n">
-        <v>44.60515213012695</v>
+        <v>44.86903381347656</v>
       </c>
       <c r="E2" t="n">
-        <v>5.003195762634277</v>
+        <v>5.851964473724365</v>
       </c>
     </row>
   </sheetData>
